--- a/Rév8-quotations.xlsx
+++ b/Rév8-quotations.xlsx
@@ -82,7 +82,7 @@
     <t>jöttek a aztán jöttek a kínai boltosok, azok úgy okék. Tehát, hogy az nem okoz semmilyen problémát</t>
   </si>
   <si>
-    <t>Lakossági összetétel, közösségek, Üzletek / szolgáltatások / vendéglátás</t>
+    <t>Lakossági összetétel / közösségek, Üzletek / szolgáltatások / vendéglátás</t>
   </si>
   <si>
     <t>elkezdtek bezárni a dohányboltok</t>
@@ -418,7 +418,7 @@
     <t>Hát nem igazán örülök, de nem foglalkozom azzal, hogy cigányok élnek itt, de hát ez a nyolcadik kerületnek egyik velejárója, hát ennyi.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.)</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más)</t>
   </si>
   <si>
     <t>Hát egyszer a sétáló utcának nagyon örülnék, ha sikerülne</t>
@@ -493,7 +493,7 @@
     <t>csomó hajléktalan van ott a bejáraton, meg kisebbségiek közül</t>
   </si>
   <si>
-    <t>Biztonságérzet, Társadalmi sokszínűség (etnikai, osztálybeli, stb.)</t>
+    <t>Biztonságérzet, Társadalmi sokszínűség (etnikai / osztálybeli / más)</t>
   </si>
   <si>
     <t>Igen, hát például szerintem így fiatal lányokat nem szívesen engednék szerintem erre a... Most így, hogy jöttök, nektek szerintem tök oké, de este szoktam hallani az ablakomat, és nagyon randalíroznak az emberek aztán…. Most itt valaki betörte, nem tudom, bejöttek valakik és összetörték az egyik ajtót, azt nem tudom láttátok-e, az egész üvege össze volt törtve. Meg elloptak onnan valamit valakinek is, azt hiszem.</t>
@@ -634,7 +634,7 @@
     <t>az emberek, a közösség, ugye ez régebben nem volt. Vagyis még mikor én utoljára erre járkáltam, azért ennyire nem volt gáz ez az utca</t>
   </si>
   <si>
-    <t>Negatív, Lakossági összetétel, közösségek</t>
+    <t>Negatív, Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>De most ugye az ember lemegy, borzasztó az utca mindenhol. oda van pisélve, kakélve, ital kiöntve, itt fekszik egy láb nélküli, ott fekszik egy láb nélküli, mindenhol tiszta fertő. Na most, hogy egyenesen kimegy, ez tiszta fertő, amit folyik.</t>
@@ -646,7 +646,7 @@
     <t>Ugye, megemlítem ezt is, azt a rengeteg...Nem azért, hogy valami bajom van velük, mivel én roma számozás vagyok, a férjem egyiptomi arab, úgyhogy semmi bajom a másfajtájú emberekkel, hanem rengeteg... Ezek az indiai, vagy pakisztán, vagy nem tudom, tele, tele, tehát ugye az egész, akárhová megyek, és hát elég, nem egy tiszta népség. Nem a legtisztábbak közé tartoznak, úgyhogy ezek így rontják az utcának a...</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Negatív</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Negatív</t>
   </si>
   <si>
     <t>Vásárolni leginkább piacon, Lidl-ben</t>
@@ -761,7 +761,7 @@
     <t>Hát maga az utca, az egy érdekes történet. Szerintem nagyon vegyes, és nem tudom, hogy sok mindennel mit lehetne kezdeni, ugye azért a nem ehhez szokott emberekre biztos, hogy szívbajt kapnak itt az Alföldi utcai galerin.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Csak vicces</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Csak vicces</t>
   </si>
   <si>
     <t>Az nem is igazából hajléktalanszálló, ha jól tudom, az az Alföldi utcai. Igen, a rokkant hajléktalanszálló. Ugye ott szegényeket reggel kitolják, és itt a török bolt előtt (nem érthető) néznek, tehát ott bandáznak ők egész nap, mert ugye szegények hova menjenek, egy hogyhívjákkal láb nélkül, szóval. Tehát ez egészen a Teleki térig itt, szegények ott keccsölnek egész nap. Nem rájuk vagyok mérges, tehát biztos, hogy nem hogyhívják, csak kicsit azért szívszorító így azért ott végigmenni. Ilyen szempontból is, meg hát néha nem is tudnak viselkedni, de hát most mit tudom én, tehát ez nem az a... nem elsősorban az ő problémájuk …ez (?) rendszerprobléma hogy ott, itt tengetik a napjaikat.</t>
@@ -812,7 +812,7 @@
     <t>Pláne, hogy itt elkezdődött az utca ilyen multikulturálisodni, ugye ez is egy valószínűleg a elhanyagoltságnak egy mellékhatása, hogy innen menekülnek a bennszülöttek. Ugye ezt nagyon jól példázza az utca elején lévő nepáli ökoszisztéma, vagy nem is tudom mi van már nekik ott. (nem érthető) Igen, ezt egy úriember csinálja, nagyon jól csinál, ugye neki van vagy öt boltja, most már van saját fogorvosuk, orvosi rendelőjük, boltjuk, ugye ezt a fesztivált is ők tartják egyébként, ez hatalmas szégyene szerintem az önkormányzatnak, hogy a Kasmír Fesztivált egy itt lévő indiai csinál az utcában fesztivált, nem pedig az önkormányzat, szóval én ezt egy kicsit azért annak a számlájára írom, hogy az önkormányzat elengedte ezt az utcát ilyen szempontból.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Jelenleg</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Jelenleg</t>
   </si>
   <si>
     <t>Egy nigériai katolikus templom van alattunk.</t>
@@ -827,7 +827,7 @@
     <t>Ez egy nehéz kérdés, de én úgy látom, hogy a fejlődést addig nem lehet az utcával megcsinálni, amíg a... mert igazából itt egy döntéskényszer van, legyen villamos, ne legyen villamos az utcában, mert...mert szerintem ez ami nagyon hátráltatja. És én sok szempontból nem szeretem, jó közlekedni meg persze jó, hogy nem kell kimenni, de én sok szempontból nem szeretem ezt a villamost, mind a porterhelése miatt. Nagyon sok homokat nyom be az utcába. Majd nézzétek meg! Ha lent sétáltok a Népszínház utcában, és egy ilyen sárga homok van mindenhol.</t>
   </si>
   <si>
-    <t>Közlekedés, Környezeti benyomások (zaj, szmog, stb)</t>
+    <t>Közlekedés, Környezeti benyomások (zaj / szmog / más)</t>
   </si>
   <si>
     <t>Tehát én a 99-es buszt se innen indítanám, vagy mondjuk azt meghagyni és a villamost kirakni, vagy csak legalább idáig a csomópontig megcsinálni egy ilyen sétáló utca jeligét. Tehát például szerintem bőve lehetne egy ilyen utcát csinálni ebből, mint a Ráday vagy bármelyik másik.</t>
@@ -890,7 +890,7 @@
     <t>Nem csendes, sajnálom. De a hétközben az nem nagyon gáz, de a hétvégén szokott lenni. Igen, a villamos hangja is kicsit zavar.</t>
   </si>
   <si>
-    <t>Környezeti benyomások (zaj, szmog, stb)</t>
+    <t>Környezeti benyomások (zaj / szmog / más)</t>
   </si>
   <si>
     <t>Én számoltam a gyros éttermeket. Asszem 4 gyros étterem van. Annak a hátul idejöttem. A Tesco az nagyon jó hely, kicsit drágább, mint a Lidl. Tehát Lidl az is közel van. A külföldieknek vannak a Kashmir, a kebap, meg a török. Meg van másik is, nem tudom. Nem csak a külföldiek oda szokták járni, hanem a magyarok is szokták járni. Vannak magyarok, egyszerűen kezdődik az indiai, meg pakisztáni, arab helyek. Oda szoktam járni.</t>
@@ -908,7 +908,7 @@
     <t>itt az a baj, hogy szép az ország, csak vannak emberek, akik… tűnjenek el innen. Érted most a balhéznak. A kiabálnak. Vagy ilyenek. Vagy csövesek.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Biztonságérzet, Negatív</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Biztonságérzet, Negatív</t>
   </si>
   <si>
     <t>De jó, én szeretem a második János Pál pápa teret, és csak erre a keleti, a második János között, az nagyon jó hely.</t>
@@ -957,7 +957,7 @@
     <t>Esténként, esténként, igen. De most már így bírható, jobb, mint régebben. Olyan volt, hogy éjfélkor indult be. És tényleg nem csak a zene, a zene zavart, hanem az az erős basszus, hogy így remegtek tőle a falak.</t>
   </si>
   <si>
-    <t>Környezeti benyomások (zaj, szmog, stb), Negatív</t>
+    <t>Környezeti benyomások (zaj / szmog / más), Negatív</t>
   </si>
   <si>
     <t xml:space="preserve">KR: És van-e valami az utcán, amit így hozzátennél, vagy hogyha változtathatnál, akkor megtennéd? 
@@ -1004,7 +1004,7 @@
     <t>múltban itt úgy volt, hogy felültem a Blahán a villamosra, és jöttek, szó szerint, csordába, csapatosan. Fenyegetőztek, utcán éltek...tehát egy hangzavar, egy káosz volt. Volt úgy, hogy este tíz után már, hát igen-igen, nem volt biztonságos a környék. Mostmár, inkább napközben, aránylag nyugodt...elnézést, a cigányoktól, aránylag nyugodt, de rengeteg az arab meg egyebek, meg a csövesek. Tehát itt két hajléktalan szálló van. Egy itt az Alföldi utcában, és egy a Doboziban. És nagyon közel vannak egymáshoz. Rengeteg a csöves. Tehát nyáron nem nagyon tudunk ablakot nyitni utca felé, csak itt a udvar felé. Mert tényleg,olyankor lakhatatlan. Úgyhogy történtek változások, de még nem vagyunk ott, hogy... nyugodt legyen.</t>
   </si>
   <si>
-    <t>Biztonságérzet, Tisztaság / rendezettség, Negatív, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Közbiztonság és közterületi viselkedés, Lakossági összetétel, közösségek</t>
+    <t>Biztonságérzet, Tisztaság / rendezettség, Negatív, Társadalmi sokszínűség (etnikai / osztálybeli / más), Közbiztonság és közterületi viselkedés, Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>A villamosforgalom, hát azzal nem tudunk mit csinálni, az mindig itt volt. Ott a BKV-nak lenne dolga, de mi ebbe, mint lakók, nem szólhatunk bele.</t>
@@ -1013,7 +1013,7 @@
     <t>Tehát a csövesek ugyanígy itt voltak, az italozók ugyanígy itt ittak az utcán, piszkoltak az utcán, tehát... vannak változások, de kellene még. Nagyon sok.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Tisztaság / rendezettség</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Tisztaság / rendezettség</t>
   </si>
   <si>
     <t>Úgyhogy ezek a változások... igazából nagyobb rendőri jelenlét kéne és a közterületesek. Tehát az lenne, ami nagyon fontos lenne, hogy az emberek nyugodtan élhessene</t>
@@ -1025,7 +1025,7 @@
     <t>Kevesebb a csöves, kevesebb a részeg. Tehát akik itt az ablak alatt végzik a dolgukat</t>
   </si>
   <si>
-    <t>Lakossági összetétel, közösségek, Pozitív</t>
+    <t>Lakossági összetétel / közösségek, Pozitív</t>
   </si>
   <si>
     <t>Tehát nem érezzük azt, hogy na most nyugodtan kinyithatjuk az ablakot, míg lemegyünk a boltba, hogy szellőzzön a lakást, mert nem merjük, nem lehet. Tehát nincsen meg az a biztonság, na.</t>
@@ -1100,7 +1100,7 @@
     <t>Mert van a játszótér, itt a park, de nem tudunk lemenni, mert hol a csövesek vannak ott, hol meg a cigányok. És mi azért...azt mondják, hogy rasszisták vagyunk. Nem, csak mi nyugodtan szeretnénk leülni egy kicsit a parkba, árnyékba. Ezért mondtam, hogy nem élhető. Nincsen meg az az élet lehetőség. Lakni lehet, de ennyi.</t>
   </si>
   <si>
-    <t>Negatív, Társadalmi sokszínűség (etnikai, osztálybeli, stb.)</t>
+    <t>Negatív, Társadalmi sokszínűség (etnikai / osztálybeli / más)</t>
   </si>
   <si>
     <t>Hát, én nem vagyok elégedett, megmondom őszintén, nekem...a közös képviselő másképp áll a dolgokhoz, ahogy itt látták, már évek óta fel van állványozva a házunk. És a háznak nincs pénze. Az elszámolásoktól a falnak szaladok, mikor olvasom a beszámolókat. Nem vagyok megelégedve.</t>
@@ -1158,7 +1158,7 @@
     <t>Most már nem, de amikor tizenötben ugye bejöttek itt a migránsok hát tele volt a tér velünk meg a keletitől, ahogy jöttek mindenki azt kérdezte hol a köztársaság tér, akkor még úgy hívták és mindenki azt kereste. Szóval az szörnyű volt, akkor nem lehetett már kimenni minden mindenki már azt néztem, hogy. Hogy milyen táskát tud ellopni vagy kit tud leütni, vagy kitől tud kérni. Most ez azért nagyjából megszűnt, de azért még most is van, aki figyeli a táskámat, hogy hogy fogom, hogy mi van. És nem árt ha figyelek rá,</t>
   </si>
   <si>
-    <t>Lakossági összetétel, közösségek, Közbiztonság és közterületi viselkedés, Biztonságérzet</t>
+    <t>Lakossági összetétel / közösségek, Közbiztonság és közterületi viselkedés, Biztonságérzet</t>
   </si>
   <si>
     <t>hát én már öreg vagyok, de a fiatalok kutyával mindennel le mernek menni, úgyhogy biztos nincs akkora baj, de én már nem merek. Este lemenni meg nem is kell na az az igazság, hogy nekem már nem is kell, itt vagyok egyedül ami kell azt napközben el tudom intézni.</t>
@@ -1176,7 +1176,7 @@
     <t>jönnek ezzel a nagy táskával, ugye itt a visszaváltó jó sok szerencsétlen van sajnos. Úgyhogy nagyon leromlott a környezet nagyon leromlott.</t>
   </si>
   <si>
-    <t>Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai, osztálybeli, stb.)</t>
+    <t>Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai / osztálybeli / más)</t>
   </si>
   <si>
     <t>Na ez a ez a 8. kerületet mindig is híres volt erről arról amarról még ugye régebben biztos hallottak róla, de most meg ez a ez a, meg ez a drogosok</t>
@@ -1197,7 +1197,7 @@
     <t>Na ez a legrosszabb része a Blaháról még néha ha ide bejöttem a Népszínházban, egyből mintha egy lepratelepre jönnék, de most már a Blaha is olyan rondán néz ki, hogy.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Tisztaság / rendezettség, Negatív</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Tisztaság / rendezettség, Negatív</t>
   </si>
   <si>
     <t>akkor még eleinte még úgy úgy rendes volt, de most már annyira odaszoktak.</t>
@@ -1237,7 +1237,7 @@
     <t>sok itt a nyomorúságos szerencsétlen. És hát most mit mondjak megint most, ilyen régen nem volt most, egész más világ van.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Negatív, Lakossági összetétel, közösségek</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Negatív, Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>régebben is más volt a házban, itt voltak ismerősök, összejártunk, mit tudom én beszélgettünk, most már nincs ilyen. A fiatalok azt se mondják, hogy jó napot</t>
@@ -1304,7 +1304,7 @@
     <t>minden közel van tök jó multikulti van, egyre jobban a hely egyre több vendéglátó egység nyílik, egyre több közösségi tér, menő a polgink.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Pozitív</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Pozitív</t>
   </si>
   <si>
     <t>Néha megyek a Kasnerbe kávézni</t>
@@ -1340,7 +1340,7 @@
     <t>Szerintem egyre jobb, egyre több fiatal jön meg külföldi fiatalok, meg nem csak ilyen lepukkadt népek vannak azóta szerintem jobb.</t>
   </si>
   <si>
-    <t>Pozitív, Lakossági összetétel, közösségek</t>
+    <t>Pozitív, Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>csomó barátom lakik a környéken, kutyások akikkel a térre járok.</t>
@@ -1400,13 +1400,13 @@
     <t>Bár a tér az zajos de az nem hallatszik ide</t>
   </si>
   <si>
-    <t>Környezeti benyomások (zaj, szmog, stb), Pozitív</t>
+    <t>Környezeti benyomások (zaj / szmog / más), Pozitív</t>
   </si>
   <si>
     <t>kivéve szilveszterkor szilveszter egy iszonyú tehát mintha atomháború lenne a Blaha és a tér közé beszorítva.</t>
   </si>
   <si>
-    <t>Negatív, Környezeti benyomások (zaj, szmog, stb)</t>
+    <t>Negatív, Környezeti benyomások (zaj / szmog / más)</t>
   </si>
   <si>
     <t>Azt szeretném ha ki lenne festve, ki lenne csinosítva, minden pályázatot megnyernénk és csodás lakók laknának itt, és a pszichopaták elköltöznének de mondjuk a pszichopaták már elég idősek. két gáz lakó van de mindegyik 80 felett van, és remélem hogy ilyen helyes kedves külföldiek fognak beköltözni vagy helyes kedves fiatal magyarok</t>
@@ -1491,7 +1491,7 @@
     <t>Hmm...tehát akiket látok, amúgy dzsentrifikálódik,</t>
   </si>
   <si>
-    <t>Lakossági összetétel, közösségek</t>
+    <t>Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>Rengeteget. Napi szinten. Van, hogy az alapján döntünk, hogy hova menjünk, hogy a 4-es metró vonalán legyen.</t>
@@ -1570,14 +1570,14 @@
     <t>Biztonság, Negatív</t>
   </si>
   <si>
+    <t>Hát lehetne több növényzet az alsó gangon, őszintén. Egy darab cserép van középen. Szokott is benne lenni valami növény.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hát lehetne több növényzet az alsó gangon, őszintén. Egy darab cserép van középen. Szokott is benne lenni valami növény.
 Az él még egyáltalán? Elég satnya.
 Él, él. Azért valaki néha egy kis mosogatóvizet azt ráönti.</t>
   </si>
   <si>
-    <t>Hát lehetne több növényzet az alsó gangon, őszintén. Egy darab cserép van középen. Szokott is benne lenni valami növény.</t>
-  </si>
-  <si>
     <t>Nem is mondanám hangosnak</t>
   </si>
   <si>
@@ -1615,7 +1615,7 @@
     <t>ez egy ilyen nagy átjáróforgalommal jár, mert nyilván így, mert így sokféle figurát vonz magával,  és már vannak nagyon szomorúbb történetek, ahol így, nem tudom, így szaladnak a gyerekek, az ordibáló, nem tudom az ilyen bekristályozott szülők után, mint a libák, és akkor ezeket az ember még néz az ablakból és egyszer-kétszer, hú, azért...  ez valahol miért nagyon bántó, vagy nagyon szomorú, és tehetetlen az ember, és az meg egy ilyen, nem egy-nem egy jó érzés, szóval</t>
   </si>
   <si>
-    <t>Tanulmányba / kiállíásra, Társadalmi sokszínűség (etnikai, osztálybeli, stb.)</t>
+    <t>Tanulmányba / kiállíásra, Társadalmi sokszínűség (etnikai / osztálybeli / más)</t>
   </si>
   <si>
     <t>Van a török bolt, oda be szoktam menni. Vannak trafikok, ahol a... Igen, igen, igen.  Megveszi mindenki a cigijét, amit nem még fogyaszt, azt így ott veszi meg. Van egy-két ilyen éjjelnappali, vagy nem is értem, egy ázsiai bolt,</t>
@@ -1699,7 +1699,7 @@
     <t>mióta megnőtt a drogosok száma, sőt a hajléktalanok száma is, azóta este már nem szívesen megyek le egyedül</t>
   </si>
   <si>
-    <t>Negatív, Közbiztonság és közterületi viselkedés, Lakossági összetétel, közösségek</t>
+    <t>Negatív, Közbiztonság és közterületi viselkedés, Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>Egyébként nagyon sokat változott a nyolckerület maga is, és a Népszínház utca is, nagyon is... Jó fele halad,</t>
@@ -1816,7 +1816,7 @@
     <t>Tehát én meg küzdök itt az önkormányzattal, nem tudom, szóval régebben valahogy egyenlőnek tekintették itt a nemzetiségeket a kerületben, a múlt mandátumban. Nem mondom, hogy az önkormányzata hibás, hanem volt egy álgörög úriember, aki hát itt megkevert az életünket. Ő itt az összes nemzetiség fölött akart volna diszponálni a saját maga, nem is volt igazából görög. Fölvett görög nevet is, meg minden, de aztán mint utólag kiderült, hogy valami Varga Péter a rendes neve neki. Úgyhogy egy ilyen zűrös valaki volt. És akkor nagy volt a brusztolás a görög önkormányzatnál, a választásoknál, és sok volt a regisztrált álgörög.</t>
   </si>
   <si>
-    <t>Jelenleg, Társadalmi sokszínűség (etnikai, osztálybeli, stb.)</t>
+    <t>Jelenleg, Társadalmi sokszínűség (etnikai / osztálybeli / más)</t>
   </si>
   <si>
     <t>A Víg utcai oldal, de ilyen sarokház a Víg utcai oldal, onnan nem győztem küzdeni itt a JGK-val, hogy próbálják, mert pincébe mentek le, tehát két ablakot kitörtek és akkor ott a matractól kezdve minden mocsok ott volt lenn. És hát fölvettem a kapcsolatot itt a JGK vezetőjével, akkor mondtam nekik, hogy utána megtakarítsanak is ki.</t>
@@ -1835,13 +1835,13 @@
 De azokkal van baj, nem is baj, tehát ők másfajták. Tehát ezek, akik itt vannak, akiket egész nap hallgatok, ezek a muszlimok. Tehát ők itt nagyon-nagyon otthon érzik maguk</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Negatív, Pozitív</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Negatív, Pozitív</t>
   </si>
   <si>
     <t>Hát mondom, itt vannak az albánok, a törökök, a vietnámiak, a kínaiak. Ha mondom, mindenki kirakná a zászlót, akkor mi hová menjünk? Akkor mi már itt kisebbségbe vagyunk.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Tanulmányba / kiállíásra</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Tanulmányba / kiállíásra</t>
   </si>
   <si>
     <t>És ez a fesztivál, nekem az a bajom, hogy nyáron van, ugye amikor meleg van, amikor az ablakok nyitva vannak, és akkor hétvégén, tehát szombaton, vasárnapon nem lehet létezni.</t>
@@ -1865,7 +1865,7 @@
     <t>Akkor volt ez a C.B.A, akkor volt valami húsüzlet, inkább halat árultak. Tehát itt más üzletek voltak. Tehát itt a nemzetiségek elfoglalták az ázsiai nemzetiségek, itt a környéket.</t>
   </si>
   <si>
-    <t>Üzletek / szolgáltatások / vendéglátás, Lakossági összetétel, közösségek</t>
+    <t>Üzletek / szolgáltatások / vendéglátás, Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>a Bacsó Béla sarkán, az nagyon szépen most megoldották. Először megcsinálták ilyen sétáló utcával, de most, hogy ez a pizzás, kávézó költözött, de azok nagyon, nem tudom, hogy csinálják, de mind a két utcára van nekik asztalok, meg mindenféle elegáns. Szeretném, ha ilyen üzletek lennének.</t>
@@ -1934,7 +1934,7 @@
 Sok dolgos ember jött az utcában is.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Pozitív, Lakossági összetétel, közösségek, Fizikai környezet és utcakép változásai</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Pozitív, Lakossági összetétel / közösségek, Fizikai környezet és utcakép változásai</t>
   </si>
   <si>
     <t>Hát a Pápa tér metró, csarnokot kicserélték az nem előnyös. Van nagy Lidl, kisebb boltok helyett multik, tesco, spar, coop, kisiparosok megszűntek</t>
@@ -2032,13 +2032,13 @@
     <t>Cserélődik ki azért a lakosság. Hogy fogalmazzam meg? Tehát ha valaki a népszínház utcáról gondol, vagy egyből arra gondol, hogy a hátváros kisebbség, vagy a hátvároshoz kisebbség vannak itt igazából, ők is már egyre kevésbé vannak jelen. Meg ők sem ilyen tettek itt komolyabb problémát, inkább a trafik miatt a hajléktalanok és a leszakadtabb lakossági rétegek, alkoholisták vannak jelen. Ők egyre gyakrabban vannak itt, meg egyre nagyobb számban. Ez főleg anyáron, meg így a télelején észrevehető, de ez is igazából az miatt van, mert hogy nyilván hátrányos helyzetben vannak, és egyre több ember kerül ilyen helyzetbe.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Lakossági összetétel, közösségek</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>De ez például szembetűnő, hogy 18-hoz képest, kisebb a rendőri jelen, szemetesebbek az utcák, és a leszakadtabb rétegek megjelentek, de ez nyilván az miatt, mert a kerületi önkormányzat nem kap annyi támogatást.</t>
   </si>
   <si>
-    <t>Negatív, Jelenleg, Lakossági összetétel, közösségek, Közbiztonság és közterületi viselkedés</t>
+    <t>Negatív, Jelenleg, Lakossági összetétel / közösségek, Közbiztonság és közterületi viselkedés</t>
   </si>
   <si>
     <t>Mikropark, igen. Például az nekem annyira nem szimpatikus, hogy nem feltétlen tartom jó ötletnek, de ez például, ezt lehetne jobban csinálni</t>
@@ -2095,7 +2095,7 @@
     <t>Én akkor ijedtem meg, amikor ide költöztem, mert ugye azt mondták, hogy rossz környék, cigányok, minden. De sajnos úgy kell látnom, hogy rosszabb lesz a környék. Hogy mondjam. Azelőtt értettük egymást, lehetett is szólni. Most nagyon zajos. Nagyon rossz. 40 évvel ezelőtt nem volt, bocsánat, ilyet mondjak, ennyi, húgy és szar az utcán, mint ami most van.</t>
   </si>
   <si>
-    <t>Negatív, Tisztaság / rendezettség, Környezeti benyomások (zaj, szmog, stb), Közbiztonság és közterületi viselkedés</t>
+    <t>Negatív, Tisztaság / rendezettség, Környezeti benyomások (zaj / szmog / más), Közbiztonság és közterületi viselkedés</t>
   </si>
   <si>
     <t>Van nekünk köztisztasági hivatalunk, vannak nekünk törvényeink, amibe le van írva, hogy nem lehet az útcán, nem lehet ezt csinálni, nem lehet azt csinálni, most nem tudom konkrétan, hogy még se lehet, vagy ha van, akkor büntetése. Ezt senki nem nézi.</t>
@@ -2134,19 +2134,19 @@
     <t>Szerintem 90%-ban ugyanilyen. Csak most hozzájött ez a kis zöldítés, ami van, és... Nagyon sok külföldi tulajdonú üzletek vannak.</t>
   </si>
   <si>
-    <t>Fizikai környezet és utcakép változásai, Üzletek / szolgáltatások / vendéglátás, Lakossági összetétel, közösségek</t>
+    <t>Fizikai környezet és utcakép változásai, Üzletek / szolgáltatások / vendéglátás, Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>Mikor ide költöztem, akkor sokkal több volt, mert bementem, és mondtam, hogy mit akarok, és néztek rám. Mert nem beszélt magyarul. És akkor úgy kikészültem, hogy valaki úgy kaphat itt üzletet, akármit, hogyha az ország nyelvét nem beszéli. Úgyhogy ezért mondom, hogy nem tudom, hogy merre haladunk, mert oké, hogy valakinek a mániája sok színűség, de voltam több országban, de olyan nem volt, hogy nem azt a nyelvét beszélték ott az eladók. Tehát, hogy meg se szólal azon a nyelven, ahol dolgozik, meg ahol él. Ezt én nagyon zavarónak tartom.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Negatív, Tanulmányba / kiállíásra</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Negatív, Tanulmányba / kiállíásra</t>
   </si>
   <si>
     <t>Azelőtt én emlékszem rá, és nevettem is, amikor ide költöztünk, volt éjszaka, hogy kiabáltak itt az utcába, zajongtak, és kiszóltak, hogy hallgass már, mert éjszaka van aludnánk. És nem hallgattak, megint mondták, hagyd abba, ne kiabálj, mert aludnánk, értsd meg, leöntötték vízzel.</t>
   </si>
   <si>
-    <t>Környezeti benyomások (zaj, szmog, stb), Negatív, Csak vicces</t>
+    <t>Környezeti benyomások (zaj / szmog / más), Negatív, Csak vicces</t>
   </si>
   <si>
     <t>A villamos halkabb legyen, síneket meg kéne csinálni,</t>
@@ -2241,7 +2241,7 @@
     <t>Szerintem én örülnék meg, tényleg így tolnám magam, hogy vegyek részt benne, főleg ahogy az épületem belül van, mert akkor így tényleg ilyen épületi esemény, akkor így... Mondanám, hogy jaj, akkor menjünk le egy órát, és akkor próbálják ezt meg, vagy látom, hogy kívül egy pár barátot, és aztán ennyit menjünk. De az szerintem jó pofa lenne.</t>
   </si>
   <si>
-    <t>PCSMZ02.docx</t>
+    <t>PCMZ02.docx</t>
   </si>
   <si>
     <t xml:space="preserve">És akkor mióta lakik itt?
@@ -2331,7 +2331,7 @@
     <t>Változtatná a társasházon, Lakóközösség szerepe</t>
   </si>
   <si>
-    <t>PCSSA01.docx</t>
+    <t>PCSA01.docx</t>
   </si>
   <si>
     <t>Hogy mondjam, én gyereket egyedül neveltem, Újpalotán laktam, megismerkedtem egy szabadvándor tárba egy hölgyel. Aztán ő meghalt három éve, aztán én megkaptam tíze éve bérletügyi. Tehát önkormányzati bérlemény</t>
@@ -2359,7 +2359,7 @@
 Hallom, mikor elmegy. Akkor gondolhatod.</t>
   </si>
   <si>
-    <t>Négyes metró, Negatív, Környezeti benyomások (zaj, szmog, stb)</t>
+    <t>Négyes metró, Negatív, Környezeti benyomások (zaj / szmog / más)</t>
   </si>
   <si>
     <t xml:space="preserve">És a Teleki téri piacot használod?
@@ -2415,7 +2415,7 @@
     <t>Általános jövőkép, Negatív</t>
   </si>
   <si>
-    <t>PCSSA02.docx</t>
+    <t>PCSA02.docx</t>
   </si>
   <si>
     <t>beköltöztem Budapestre mert gyorsabb az élet, de Vácon dolgozom ugyanúgy, tehát hogy Vácon van a munkahelyemen, de az itteni élet miatt költöztem ide.</t>
@@ -2550,7 +2550,7 @@
     <t>Én kimondottan szeretem ezt a színes, élő kerületet. Tehát ez egészen más, mint Pest. Budáról ne is beszéljünk.</t>
   </si>
   <si>
-    <t>Pozitív, Tanulmányba / kiállíásra, Csak vicces, Társadalmi sokszínűség (etnikai, osztálybeli, stb.)</t>
+    <t>Pozitív, Tanulmányba / kiállíásra, Csak vicces, Társadalmi sokszínűség (etnikai / osztálybeli / más)</t>
   </si>
   <si>
     <t>A Kashmír, az étterem, a nyilván hozzájuk tartozó mosoda. Most itt van egy zseniális palacsintás.</t>
@@ -2735,7 +2735,7 @@
     <t>Tehát ilyen szinten az emberek olyan agresszívak lettek, meg olyan... Vagy közömbösek, vagy agresszívak, hogy... nem tudnak úgy kommunikálni a másik emberrel, tehát én úgy veszem észre. Tehát én próbálok mindenkivel szépen beszélni, próbálok úgy... most mindegy, hogy roma vagy arab vagy akármi, hát itt a ház is 70%-ában külföldi</t>
   </si>
   <si>
-    <t>Biztonságérzet, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Lakóközösség változása</t>
+    <t>Biztonságérzet, Társadalmi sokszínűség (etnikai / osztálybeli / más), Lakóközösség változása</t>
   </si>
   <si>
     <t>Mondjuk a Blahát mondom, ki szoktam kerülni, már jó ideje</t>
@@ -2769,7 +2769,7 @@
     <t>Tehát napi szinten mondjuk ezt is szoktam látni azért, vagy kiborítják a szemetest. Térnél is mondjuk... Jó, most szép a tér, mert tényleg sokat beleáldoztak. De hát ott is ugye sok hajléktalan, az alkoholista, a drogos, tehát oda este már le se megyek. Azelőtt még este is le tudtam menni, és ki tudtam ülni, például a nyári estéken, mert jó hangulat volt, semmi probléma nem volt senkivel.</t>
   </si>
   <si>
-    <t>Biztonságérzet, Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Negatív, Közbiztonság és közterületi viselkedés, Pápa tér</t>
+    <t>Biztonságérzet, Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai / osztálybeli / más), Negatív, Közbiztonság és közterületi viselkedés, Pápa tér</t>
   </si>
   <si>
     <t>minden drágult. Azért drágább is lett, ugye... A régi piac, abból a szempontból jó volt, minden árust ott is ismertem. Nagyobb volt a választék is. Lehetett alkudni is. Tehát azért más hangulata volt a piacnak.</t>
@@ -2796,7 +2796,7 @@
     <t>Nem vagyok a mostani Pikóékkal megelégedve abszolút. Hiába... most lehet, hogy ellentmondok magamnak, hogy nem vagyok fideszes... Tehát én totál pártmentes vagyok. De annak idején volt a Kocsis Máté, meg a Botond. Ők nagyon szépen helyreállítottak a kerületet, mind biztonságilag, minden szempontból. Hát, és most én nem szavaztam a Pikóra, és mégis őt szavazták meg újra. És nem vagyok megelégedve... Hát akik beljebb laknak a kerületben, inkább azoktól hallom a panaszokat. Tehát a sok drogos, meg az olyan lakó részeken... hogy azért vannak problémák. Jócskán. Tehát én még itt örülhetek, hogy ezen a környéken lakom. Tehát ez még egy jó környéknek mondható.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Biztonságérzet, Tisztaság / rendezettség, Jelenleg, Negatív</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Biztonságérzet, Tisztaság / rendezettség, Jelenleg, Negatív</t>
   </si>
   <si>
     <t>Ugye aki most a képviselőnk, a gyerekeink együtt jártak egy iskolába, tehát még onnan ismertem, még én őt ajánlottam annak idején. És végül is elég sokat tett a házért. Tehát ő még mindig azon a szinten van - mert az előzők, akik voltak, vagy meglopták a házat, vagy nem úgy végezték a dolgokat... Tehát ő még túl spúros is ahhoz, hogy... Tehát igyekszik a ház kedvébe úgy járni, hogy mindig valamit csináltasson.</t>
@@ -2857,7 +2857,7 @@
     <t>például van itt velünk szembe a kasmír bolt kasmír fodrászat fogászat minden minden tehát hogy az az arab közeg ők amúgy ügyelnek arra hogy az utcán valamennyire rend legyen és mert ugye nyilván nekik is fontos hogy ide járjanak az emberek és ne féljenek idejönni.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Tisztaság / rendezettség, Biztonságérzet</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Tisztaság / rendezettség, Biztonságérzet</t>
   </si>
   <si>
     <t>Itt van a Zsír kulipintyó a sarkon ami eléggé egy kultikus hely minden nap élőzene és társai tehát így megvan az ilyen alter vibe-ja.</t>
@@ -2963,7 +2963,7 @@
 Alany: Jó volt az a pár nap amíg lehetett látni az eredményét azóta tehát szebben néz ki, csak a ugyanúgy tele van csövekkel és cigókkal.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Nincs hatása, Blaha Lujza tér</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Nincs hatása, Blaha Lujza tér</t>
   </si>
   <si>
     <t>tök jó hogy felújították. Ott van DM, Spar, társai, a körítése meg a díszdoboz az tök jól a Blahának most viszont a tartalom az még mindig problematikus.</t>
@@ -2972,13 +2972,13 @@
     <t>Szóval nagyon jó hogy megcsinálták csak a színvonalon nem igazán javított ez a felújítás.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Negatív, Pozitív, Blaha Lujza tér</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Negatív, Pozitív, Blaha Lujza tér</t>
   </si>
   <si>
     <t>majdnem kétnaponta ott vagyok a Blahán, mert mi a sparba szoktunk menni bevásárolni csak ott egy kicsit gyorsabb lépttel sétálunk, hogy elhaladjuk ott az etnikumot.</t>
   </si>
   <si>
-    <t>Vásárlás / boltok / szolgáltatások, Biztonságérzet, Társadalmi sokszínűség (etnikai, osztálybeli, stb.)</t>
+    <t>Vásárlás / boltok / szolgáltatások, Biztonságérzet, Társadalmi sokszínűség (etnikai / osztálybeli / más)</t>
   </si>
   <si>
     <t>a Bacsó Béla utca, ott most ott a Csiga és a Hintaló környékén megcsinálták azt a teret, ami tök jó tehát az Rákóczinak nagyon nagyon jót tett, hogy ott ilyen kis nem tudom európaibb, ilyen prágaibb lett az egész meg az is hogy ott van maga a Rákóczi piac mögött ott most raktak egy kinti edző terem szerűséget tehát az is használva van az is tök jó, megvan az eredménye, aki aki használja az becsületesen használja és így kihasználja, pozitívan ezeket a dolgokat. Tehát talán több ilyet!</t>
@@ -3102,7 +3102,7 @@
 Tehát most rosszat mondok, de nem tudom szebben mondani, a gazdag zsidók. Mert ugye a libások azok mind zsidók voltak, és na, szóval ők, meg aki tulajdonképpen... Maszek volt, maszek zöldséges, akkor, az én gyerekkoromban, hát az egy fogalom volt... úgyhogy na, hát azok laktak itt a környező házakban. Úgyhogy ilyen értelemben biztos változott.</t>
   </si>
   <si>
-    <t>Tanulmányba / kiállíásra, Üzletek / szolgáltatások / vendéglátás, Lakossági összetétel, közösségek</t>
+    <t>Tanulmányba / kiállíásra, Üzletek / szolgáltatások / vendéglátás, Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>maradok a villamosnál. Végsősoron a 4-es 6-ossal. Itt a végállomásig elmegyek két megállót, a 4-es 6-ossal meg tovább...</t>
@@ -3135,13 +3135,13 @@
     <t>hát én mindig úgy szoktam fogalmazni hogy Budapest segglyukában lakom mert itt ez a Népszínház vége katasztrófa ez katasztrófa hát előttünk 7 különböző járat áll meg 5 villamos 2 busz és elég szarul van megcsinálva mert ugye a Mekinél teszi le az utasokat és a Víg utcánál veszi föl és pont előttünk van oda vissza sétáltatva ez a rengeteg ember úgyhogy a katasztrófa meg úgy úgyhogy olyan olyan senki földjének tűnik mert hogy állítólag ugye fővárosi terület és a helyi önkormányzat az szarik rá magasról a főváros is szarik rá a rendőrség is és hát kb. százasával kell aláírást gyűjtenünk azért hogy normális környezetbe legyünk. Úgyhogy nem jó.</t>
   </si>
   <si>
-    <t>Környezeti benyomások (zaj, szmog, stb), Tisztaság / rendezettség, Jelenleg, Negatív</t>
+    <t>Környezeti benyomások (zaj / szmog / más), Tisztaság / rendezettség, Jelenleg, Negatív</t>
   </si>
   <si>
     <t>az hogy a hogy kinek mit jelent a biztonság mert az hogy soha nem támadtak meg meg soha egyszer kétszer volt olyan akit nem akartam mondjuk beengedni be akart utánam jönni de inkább nem is a nem is a biztonságnak ez a része hanem nem tudom én azért szeretek úgy közlekedni akár haza is hogy hogy nem húgyfoltokon meg hajléktalanokon meg szerhasználókon meg minden egyébben kelljen szóval erre szerintem nincs figyelve abszolút úgyhogy a köztisztaság közbiztonság az kritikán aluli. ezen a részen. Szóval most itt ezt az első 70-100 métert mondom. a följebb följebb ugye tisztul, ott nincs akkor átmenő forgalom</t>
   </si>
   <si>
-    <t>Biztonságérzet, Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai, osztálybeli, stb.)</t>
+    <t>Biztonságérzet, Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai / osztálybeli / más)</t>
   </si>
   <si>
     <t>hát itt a Népszínház elején ezeket az üzleteket én mint látogatom a törököt, a kínaiakat, az arab üzleteket, a palacsintást, akkor a fönn a Pápa téren a masszázs boltba megyek hát végül is ilyeneket</t>
@@ -3165,7 +3165,7 @@
     <t>mikor is? tavaly tavaly október tavaly októbertől decemberig január elejéig mindenki a házunk előtt szívott meg vásárolt 3 hónapon keresztül és senkinek nem tűnt fel és tudod ez behugyoznak be szarnak betörik a kapunkat az elmúlt 3 évben tizennégyszer cseréltettünk üveget a kapunkon. szóval nem nagyon van változás szóval mindig időleges változások vannak tartósat azt nagyon nehéz elérni</t>
   </si>
   <si>
-    <t>Biztonságérzet, Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Negatív</t>
+    <t>Biztonságérzet, Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai / osztálybeli / más), Negatív</t>
   </si>
   <si>
     <t>persze a fásítás meg a minden ennek örülünk de hát az hogy nem tudom szóval ennél nagyobb mértékű változásra vágyik mindenki. ez tényleg egy ilyen magára hagyott utca ezt mindenki így érzi, 30 éve ígérik azt hogy fel lesz újítva és és nem tartunk sehova.</t>
@@ -3186,7 +3186,7 @@
     <t>hát annyira nincs nagy fluktuáció szerintem az üzletek terén ugye a kasmíros, Zahid talán vagy valami nem is tudom mi a neve na mindegy hogy hát ő itt leuralja a környéket meg a kínaiak és ő neki igazából nem változnak az üzletei az hogy följebb van egy fornettis ami utána a kávézó lesz aztán nem tudom micsoda hát ez ilyen helyeken meg úgyse járok úgyhogy akkora változás nincs.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Üzletek / szolgáltatások / vendéglátás</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Üzletek / szolgáltatások / vendéglátás</t>
   </si>
   <si>
     <t>napi szinten én azért járok ki kutyázni az a másik front amin szoktam harcolni igen igen az is egy katasztrófa igen</t>
@@ -3216,7 +3216,7 @@
     <t>és akkor visszatérnék így a pápa térre hogy azzal hogy az önkormányzat meg akár a főváros nem tett semmit és évről évre putrisabb lett a pápa tér és az emberi fekáliától kezdve a szemét hegyeken keresztül minden volt, elveszi a parkba járás élménye élményét az hogyha már szabadon kutyázhatunk mert ezt mondjuk ugye szokásjog alapján kivívtuk magunknak, nincsenek kikapcsolódási lehetőségeink mert egyszerűen a pápa tér az már nem a helyieké hanem a hajléktalanoké meg a szerhasználóké.</t>
   </si>
   <si>
-    <t>Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Pápa tér, Lakossági összetétel, közösségek, Közbiztonság és közterületi viselkedés, Negatív</t>
+    <t>Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai / osztálybeli / más), Pápa tér, Lakossági összetétel / közösségek, Közbiztonság és közterületi viselkedés, Negatív</t>
   </si>
   <si>
     <t>az önkormányzat hozzáállása hogy az egyik kezével ad a másikkal elvesz nekem az összes barátom elköltözött a környékről az elmúlt 3 évben. mindenki lakástulajdonos volt mindenki baloldali szavazó csak mindenkinek elege lett.</t>
@@ -3237,7 +3237,7 @@
     <t>fogynak el a lakóink, nemcsak a mienk hanem itt a környék ház környékén lévő házakban is meg akiket ismerek. változik cserélődik a lakóközösség úgyhogy na mindegy szerintem ez lesz Józsefvárosnak a halála, hogy teljesen ki fog cserélődni és nem nem fog gondolj bele hogy a civil szervezetek amik vannak Józsefvárosban a nagy része már nem is józsefvárosi lakó. Úgyhogy, itt tartunk.</t>
   </si>
   <si>
-    <t>Jövőkép az utcáról, Lakóközösség változása, Lakossági összetétel, közösségek</t>
+    <t>Jövőkép az utcáról, Lakóközösség változása, Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>igen én azt szeretném hogy bár szerintem ezt már mondtam az előbb is hogy hogyha a villamos megállót amikor majd lesz a fejlesztés a villamos megállót visszatérnék a mind a 2 megállót a mekihez hogy nem kéne itt összevissza sétáltatni az embereket</t>
@@ -3273,7 +3273,7 @@
     <t>hogyha bárkivel beszéltek az utcán vagy leszólítotok egy idegent hogy mi nem tetszik neki a kerületben? Hajléktalanok, a kosz meg a szemét. és most nem a hajléktalannal van a gond hogy létezik olyan hogy hajléktalan hanem az hogy a hajléktalan, aki érinthetetlenként vannak kezelve a kerületben hogy azt csinálnak amit akarnak. Következmények nélkül. Miközben bemegy egy szállóra ott is vannak szabályok és azokat is be kell tartani. Dehát ez egy befogadó önkormányzat, mások a szabályok. szóval igen lenne még mit fejleszteni, igen kamerát mindenhova.</t>
   </si>
   <si>
-    <t>Biztonságérzet, Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Jelenleg, Közbiztonság javítása, Szociális ellátórendszer, Tisztaság / rendezettség javítása</t>
+    <t>Biztonságérzet, Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai / osztálybeli / más), Jelenleg, Közbiztonság javítása, Szociális ellátórendszer, Tisztaság / rendezettség javítása</t>
   </si>
   <si>
     <t>Ezt a szállót már régen meg kellett volna szüntetni meg a szóval az ilyen belvárosi szállókat sokkal kijjebb kéne vinni, meg a százasházakat is ugye</t>
@@ -3282,7 +3282,7 @@
     <t>csak van egy szint amit már egy tér vagy egy köztér nem bír el. és ahelyett hogy hogy meghoznák azt a szabályt hogy mondjuk közterületen életvitelszerűen nem tartózkodhatsz ami mondjuk megvan csak nincs ember aki ezt betartassa mer ugye ez túl PC meg jaj hát akkor hova menjenek nem tudom aztán aztán ez van és akkor így így semmi nem változik és akkor a helyiek szorulnak ki a közterekről meg a parkokból meg mindenhonnan.</t>
   </si>
   <si>
-    <t>Biztonságérzet, Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Tisztaság / rendezettség javítása, Szociális ellátórendszer</t>
+    <t>Biztonságérzet, Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai / osztálybeli / más), Tisztaság / rendezettség javítása, Szociális ellátórendszer</t>
   </si>
   <si>
     <t>se a szemetesnek se közteresnek senkinek nincs jelentési kötelezettsége hogy hogy beküldje a központba hogy eltörött a kuka. és mi azt nézegetjük 5 évig vagy 3 évig és azért ha végignézel a Népszínház utcá kukák a különböző ilyen villanyt dobozok ami mondjuk vagy a BKK-é vagy a nem tudom összegraffitizve eltörve mit tudom én hogy tényleg ilyen képet kell nézni hogy ez a ez az ez tényleg olyan mint hogyha egy ilyen magára hagyatott utca lenne hogy mindenki azt mondja hogy nem az ő felelőssége nem az ő hatásköre de hogyha én önkormányzat vagyok és ez az én területemen van küldök egy levelet BKK-nak vagy akié az a villany doboz ahhoz hogy cseréld már le mert el van törve, hogyha nem cseréli akkor küldök neki még egy levelet hát nem vagy nem tudom olyan olyan gazdátlan minden egy kicsit. Én több növényt sokkal több növényt szeretnék az ahogy láttam a Népszínház utcának a növényes fejlesztését hogyha jól értelmezem a képet akkor pont a mi oldalunkat fogják fejleszteni vagy fásítani</t>
@@ -3400,7 +3400,7 @@
     <t>Az utca az már egy más kérdés. Hát, mondjuk azt, hogy hangos, és nagyon kupis. Talán ez a legszofisztikáltabb megfogalmazás, amit tudok mondani, illetve, hogy iszonyatosan túlzsúfolt.</t>
   </si>
   <si>
-    <t>Tisztaság / rendezettség, Környezeti benyomások (zaj, szmog, stb)</t>
+    <t>Tisztaság / rendezettség, Környezeti benyomások (zaj / szmog / más)</t>
   </si>
   <si>
     <t>eggelente szoktam menni dolgozni, elég korán szoktam indulni, és éjszaka mindig feltúrják a kukákat. És akkor minden egyes szemetet, és itt a minden alatt tényleg minden, szóval, hogy a kajáktól elkezdve a szétszórt pelenka, minden megtalálható, és így szétszórva a járdára. És nem lehet egyszerűen normálisan végigmenni azon az utcán</t>
@@ -3427,13 +3427,13 @@
     <t>Őszintén fogalmam sincs, hogyha még több kukát tennének ki, mondjuk, vagy tényleg akármivel próbálna változni, akkor azok, akik mondjuk kevésbé civilizáltabbak, és itt most lehet szó akár külföldiekről, akár nem külföldiekről, igénybe vennék-e, és hogy használnák-e aktívan, mivel hiába van két lépésre a kuka, nyilván, de ez tök mindegy, hogy ki csinálja, ugyanúgy eldobálják a csikket, ugyanúgy eldobálják a papírzsepit, meg igazából minden szanaszéjjel van. Illetve nem tudom, hogy lehetne inkább ezeket a kukás felborításokat megakadályozni, hogy kiszedegessék, mert egyszerűen szerintem ez rohadt dühítő, és iszonyatosan undorító.</t>
   </si>
   <si>
-    <t>Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Jövőkép az utcáról, Negatív</t>
+    <t>Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai / osztálybeli / más), Jövőkép az utcáról, Negatív</t>
   </si>
   <si>
     <t>Illetve a másik, ami nagyon-nagyon zavaró még számomra, hogy lépten-nyomon hajléktalan, minden mennyiségben, az utca közepén alszik, azt várja, hogy átugord, vagy átsétálj fölötte, vagy nem tudom, hogy mit várnak, de hogy így teljesen középre, az utat kvázi elzárva, fekszenek, alszanak, illetve hát olyan helyeken végzik a bizonyos dolgaikat, amik nagyon nem oda valók. Szóval, nem tudom, hogy esetleg több nyilvános wc megnyitásait akár, vagy, hogy esetleg nem tudom, valami olyan hely, ahova csak el tudnak menni, kicsit behúzódni.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Tisztaság / rendezettség, Szociális ellátórendszer, Közbiztonság javítása, Infrastuktúra, Tisztaság / rendezettség javítása</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Tisztaság / rendezettség, Szociális ellátórendszer, Közbiztonság javítása, Infrastuktúra, Tisztaság / rendezettség javítása</t>
   </si>
   <si>
     <t>Szóval, én egyébként a hajléktalanokkal kezdenék valamit nagyon gyorsan.</t>
@@ -3537,7 +3537,7 @@
 Sokféle. Alapvetően azt szeretjük azt is, amiért jöttünk, de alábecsültem én személy szerint egész biztosan a zajt, a szagokat az utcán és hát azért itt intenzívebben jelenik meg az, ami a társadalomban a probléma, sokkal inkább és ez szomorú, amikor naponta arcul csapja az embert.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Környezeti benyomások (zaj, szmog, stb), Tanulmányba / kiállíásra, Negatív</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Környezeti benyomások (zaj / szmog / más), Tanulmányba / kiállíásra, Negatív</t>
   </si>
   <si>
     <t>De nagyon szeretjük ezt a lakást is</t>
@@ -3558,19 +3558,19 @@
     <t>sokkal többször csap orrba fűszag, meg az olyan embereknek a, tehát akik látszik, hogy valamilyen szeren vannak és ez… tehát ez abszolút romlott ez a helyzet.</t>
   </si>
   <si>
-    <t>Negatív, Lakossági összetétel, közösségek, Közbiztonság és közterületi viselkedés</t>
+    <t>Negatív, Lakossági összetétel / közösségek, Közbiztonság és közterületi viselkedés</t>
   </si>
   <si>
     <t>Amit különösen szeretek, az az, hogy, sokféle kultúra találkozik itt. Most ha csak arra gondolok, hogy milyen jellegű boltok vannak ezen a környéken. Mi az, ami könnyen elérhető. Ázsiai ízek, Közel-Kelet, nem csak az ízek, hanem az embereknek a keveredése.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Pozitív, Tanulmányba / kiállíásra</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Pozitív, Tanulmányba / kiállíásra</t>
   </si>
   <si>
     <t>alapvetően a család is nagyon multi-kulturális, a tágabb család, a baráti kör is és ez… tehát itt, ez nekem egyfajta komfortzóna és biztonságérzet.</t>
   </si>
   <si>
-    <t>Biztonságérzet, Érzelmi kötődés, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Pozitív</t>
+    <t>Biztonságérzet, Érzelmi kötődés, Társadalmi sokszínűség (etnikai / osztálybeli / más), Pozitív</t>
   </si>
   <si>
     <t>szerintem döbbenetes az, hogy milyen váltások vannak szinte sarokról sarokra. A Blahához közel, ott azt inkább úgy kerülöm. Nem feltétlenül azért, mert nem érzem magam biztonságban, hanem mert ott valahogy koncentrálódik az a társadalmi szürrealitás, ami normalitássá válik egyre inkább. Hogyha jövünk följebb egy kicsit, akkor, akkor jobb a helyzet, aztán a Teleki tér felé megint romlik.</t>
@@ -3614,7 +3614,7 @@
     <t>Most mintha egy kicsit megint romlana helyzet, de nem azért szerintem, mert nem tesznek érte, hanem a talán arra térnék vissza, ez az ownership hiánya inkább, tehát, hogy normalitás az a szintű szemetelés, meg, meg az az utcán a mindenféle ügyüket elintézik az emberek a időnként, olyan természetességgel, ami döbbenetes számomra. És ezen nem feltétlenül segít a közvécéknek a felállítása sem.</t>
   </si>
   <si>
-    <t>Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Negatív, Közbiztonság és közterületi viselkedés</t>
+    <t>Tisztaság / rendezettség, Társadalmi sokszínűség (etnikai / osztálybeli / más), Negatív, Közbiztonság és közterületi viselkedés</t>
   </si>
   <si>
     <t xml:space="preserve">a négyes metrót szokta-e használni?
@@ -3660,7 +3660,7 @@
     <t>Nekem hozzájárul, abszolút, például a Kasmír napok ahhoz, hogy jobban azt érezzem, hogy itt egyébként van valami közösség, aminek lehet, hogy nem vagyok direktbe a tagja, de, hogy valami van, ami nyitott. Nagyon sok minden nem nyitott manapság.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Szabadidő / szórakozás / vendéglátás, Közösségi interakciók az utcán, Közterület használata</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Szabadidő / szórakozás / vendéglátás, Közösségi interakciók az utcán, Közterület használata</t>
   </si>
   <si>
     <t>a gyerekek, azokat nem tudják hova tenni, mert apukájuk indiai, és hát ilyen félvér... És nagyon sok kirekesztés élményük volt így a Magyarországon. Szerintem itt kevésbé, ebben a kerületben, mint mint máshol.</t>
@@ -3684,7 +3684,7 @@
     <t>Egy dolog, ami ki akaszt, az az, hogy nem lehet elérni azt, hogy … nem tudom, hogy ez min múlik, a Airbnb lobbin vagy ki múlik, min múlik, de ez ez szerintem nagyon sokat ront ennek a az utcának az állapotán, meg elérik jobban, hogy aki egyébként szeretne itt lakni, az is inkább elmenjen. Tehát mi azon a határon voltunk már több alkalommal, mióta az Airbnb megnyílt, hogy… tehát nem vállalható az az életminőség így, a szennyt, tehát a mocskot hagynak, a zaj, az egész, tehát többször kellett kihívni a rendőrséget.</t>
   </si>
   <si>
-    <t>Jövőre - Utcánál, Lakossági összetétel, közösségek, Közbiztonság és közterületi viselkedés, Tanulmányba / kiállíásra, Környezeti benyomások (zaj, szmog, stb)</t>
+    <t>Jövőre - Utcánál, Lakossági összetétel / közösségek, Közbiztonság és közterületi viselkedés, Tanulmányba / kiállíásra, Környezeti benyomások (zaj / szmog / más)</t>
   </si>
   <si>
     <t>Változott. Rosszabb lett a helyzet, amikor ideköltöztünk, akkor ez olyan volt, mint egy ilyen békeszigete kb. Tehát nagyon tiszta, rendezett volt, tök normális, lehetett így a lakókkal is, vagy a házban lakókkal kommunikálni, és amikor megnyílt ez az Airbnb, itt megvettek egy lakást, és két Airbnb-t csináltak, onnantól kezdve ez egy ilyen lefelé ívelő pálya</t>
@@ -3693,7 +3693,7 @@
     <t>ezt mástól is hallom, aki régóta lakik itt, hogy fél kimenni, tehát itt már többször volt olyan, hogy kétszer is rendőrséget ki kellett jönnie, meg rendőrség kijött. Tehát az, amikor kilépek, és az eldobott csikkek, azt hagyján, de meg csak a fűszag, és olyan elejtett mit tudom én mi, extazi, vagy mit tudom én, vannak ilyen tabletták, és a lift csúnya és mocskos, és bejárnak, a kódot valószínűleg már nagyon-nagyon sokan tudják, mert mert bejárkálnak, és ott végzik el a dolgukat. Tehát, hogy, hogy teljesen a tisztaság- és a biztonságérzet az rendkívüli leromlott itt.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Biztonságérzet, Biztonság, Közös terek használata, Tisztaság / rendezettség, Negatív</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Biztonságérzet, Biztonság, Közös terek használata, Tisztaság / rendezettség, Negatív</t>
   </si>
   <si>
     <t>Ja, a másik, amiért én azért pánikszerűen akartam költözni, az a lányom és a barátja volt egy éjszaka 2:00 körül a II. János Pál pápa terén, ahol látták, ahogy maszkos fiatalok elkezdenek rugdosni hontalanokat, és ő feléjük is elkezdtek menni, és nagyon-nagyon sok olyan mondat hangzott el, amiből látható, hogy a faji hovatartozás is hozzátartozott, vagy etnikai hovatartozás is ennek a kiváltó okához</t>
@@ -3822,7 +3822,7 @@
     <t>Illetve hát nagyon sok sztereotipiát hallottam, hogy jaj, a Blaha, a Népszínház, mit tudom én. és én semmi ilyesmit nem tapasztaltam, szóval nekem pozitív csalódás volt nyilván, hogy atrocitások mindenhol vannak, mindenféle emberrel, de semmi olyat nem hallottam, vagy láttam, amire azt mondtam volna, hogy jesszusom, mereküljünk, tehát hogy engem ezek a sztereotípiak elkerülnek.</t>
   </si>
   <si>
-    <t>Biztonságérzet, Környezeti benyomások (zaj, szmog, stb), Pozitív</t>
+    <t>Biztonságérzet, Környezeti benyomások (zaj / szmog / más), Pozitív</t>
   </si>
   <si>
     <t>Hát ott a Teleki téri, mi van ott, Lidli van, ugye? Keverem az aldiban mindig. Ott voltam párszor, illetve itt két sarokra lent van egy Tesco. Itt a sarkon egy kínai kis üzlet van, ott is voltam lent, illetve azt nagyon szemezek, ezzel a szemben van egy ilyen török bolt, azzal is, de oda még nem volt merszem betérni.</t>
@@ -3867,7 +3867,7 @@
     <t>Azon kívül, hogy itt vannak a hajléktalanszálló sajnos pont a szomszédunkban, de most onnan sem.Ott se látok nagy problémát. Ha viszont valami probléma van, akkor viszont a rendőrök már kint vannak rögtön</t>
   </si>
   <si>
-    <t>Biztonságérzet, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Pozitív</t>
+    <t>Biztonságérzet, Társadalmi sokszínűség (etnikai / osztálybeli / más), Pozitív</t>
   </si>
   <si>
     <t>Teszkóba járok. Úgyhogy ott van kedvezményünk, és itt vásárolok</t>
@@ -3955,7 +3955,7 @@
     <t>Hát, szerintem nagyban függ azért a... Nem akarom erre terelni, de a politikától, hogy lesz-e kormányváltás? Kimarad a polgármester a következőkben, mert tudjuk, hogy ahol tudják, kigáncsolják. Hogy hívják? Pikót? Pikó? Ugye? Na igen. Nem akarok politizálni. Tehát nehéz helyzetben van, reméljük a következő években, évtizedekben egyre jobb lesz.</t>
   </si>
   <si>
-    <t>PCSMZ01.docx</t>
+    <t>PCMZ01.docx</t>
   </si>
   <si>
     <t>70%-ban én szeretem azt, ami van, az 30% meg szerintem valahogyan kidolgozhat</t>
@@ -3982,7 +3982,7 @@
     <t>Az tagadhatatlan, hogy sok lumpen elem van itt a környéken ma is. Ez nem egy jó, de... De ez egy színes a környék, tehát azt azért én élvezem, hogy... Hát, színes, nem tudok ennél jobb kifejezést mondani,</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Tanulmányba / kiállíásra, Érzelmi kötődés</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Tanulmányba / kiállíásra, Érzelmi kötődés</t>
   </si>
   <si>
     <t>Itt van ez a ház, amiben most vagyunk. Idejöttünk, itt lakott a Marosán [György] húga, a Marosán Irénke. Itt van a pártház. Akkor persze még nem tudtuk, de egy 3/3-as BM [Belügyminisztérium]-ezredes. Alatta lakott egy sportújságíró, aki viszont a Dalnoki- kormány idején külügyi titkár volt. És laktak itt szegény vagy mondhatom lumpen elemek is, de egy színházi varró(?) lakott itt. Szóval egy rendkívül színes társaság volt.</t>
@@ -3991,7 +3991,7 @@
     <t>Szóval ilyen értelemben érdekes itt lakni. Nem vagyunk annyira elszigetelve, szóval most, ha Budán laknák, vagy mit tudom, egy ilyen kertváros, ott az jobban elszigetelődik az ember.</t>
   </si>
   <si>
-    <t>Érzelmi kötődés, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Pozitív</t>
+    <t>Érzelmi kötődés, Társadalmi sokszínűség (etnikai / osztálybeli / más), Pozitív</t>
   </si>
   <si>
     <t>Az utóbbi időben itt is megjelent, amikor ugye itt voltak délben. Sok lakás üres, sok lakást, bérlők lakják, velük már nincsen ez a kommunikáció, alig vagyunk a házban már tulajdonosok és azért az akkor nem annyira jó.</t>
@@ -4091,7 +4091,7 @@
     <t>Mert képzeljétek el, hogy vannak itt ezek a hajléktalak. Ugye van itt egy ilyen szálló, vagy ilyen átmeneti... Nagyon kedvesek. Figyelnek mindenre, tök jó fejek egyébként, nem bántanak, nem rabolnak ki, tehát abszolút... Tökélete.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Biztonságérzet, Pozitív, Tanulmányba / kiállíásra</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Biztonságérzet, Pozitív, Tanulmányba / kiállíásra</t>
   </si>
   <si>
     <t>Igen, hát ahogy mondtam neked... Jól érzem magam itt egyébként. Nagyon közel van minden. Hát itt a Blaha, és onnan bárhová. Metró, bárhová lehet menni.</t>
@@ -4259,7 +4259,7 @@
 Innen már csak a temetőbe.</t>
   </si>
   <si>
-    <t>DBSZA01.docx</t>
+    <t>DBSA01.docx</t>
   </si>
   <si>
     <t>És ezért költöztünk ide, mert kerültünk mindenfelé nézelődtünk, és itt találtunk egy olyan lakást, ami szimpi volt, árban megfelelt, akkor még, azóta már nem ilyenek az árak, és tűnt, hogy a környék is normalizálódik, akkor úgy tűnt.</t>
@@ -4322,7 +4322,7 @@
     <t>főleg a Kasmíros vonal lett egy ilyen közelebbi viszony, és folyton köszönünk szia, hogy vagy. És főleg ő szokta megkérdezni. És biztos, hogy ez az ő személyiségéből jön, De ez ilyen kedves és jóleső. A másik, ugyanabban a kínai boltban vesszük a mosószert meg az ilyeneket... Szóval itt ilyen szinten alakultak dolgok, és ez így tök jó.</t>
   </si>
   <si>
-    <t>Vásárlás / boltok / szolgáltatások, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Pozitív</t>
+    <t>Vásárlás / boltok / szolgáltatások, Társadalmi sokszínűség (etnikai / osztálybeli / más), Pozitív</t>
   </si>
   <si>
     <t>De alapvetően most már nem olyan érzés végigsétálni mondjuk az utcán, mint amiről mondjuk tíz éve beszéltek, meg húsz éve. Meg ennek az utcának tényleg van egy olyan története, amit még a szüleink is emlegettek, hogy mindegy, csak azt ne. Hát igen. Ebből a szempontból ez így jó.</t>
@@ -4569,7 +4569,7 @@
     <t>a környéken sokkal több a hajléktalan, mintha egyre több lenne. Meg régen nekem nem rémlik, hogy például akár nappal, nem is éjszaka, tehát hogy drogosokat lássak az utcán.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Biztonságérzet, Negatív, Közbiztonság és közterületi viselkedés, Lakossági összetétel, közösségek</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Biztonságérzet, Negatív, Közbiztonság és közterületi viselkedés, Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>Házban néha bejönnek a hajléktalanok, volt is belőle probléma, azért is, tehát proxys kulcsunk. Még mindig van belőle néha probléma. Illetve maga az a PET-palack visszaváltó rendszer, a másik ami okozza, hogy nyilván bejönnek, akkor szemetet, szemetban bekeresni.</t>
@@ -4581,7 +4581,7 @@
     <t>Talán egyre több rossz arcot látsz, vagy nem is tudom.</t>
   </si>
   <si>
-    <t>Biztonságérzet, Negatív, Lakossági összetétel, közösségek, Közbiztonság és közterületi viselkedés</t>
+    <t>Biztonságérzet, Negatív, Lakossági összetétel / közösségek, Közbiztonság és közterületi viselkedés</t>
   </si>
   <si>
     <t>Nagyobb lett a járda, meg a nagyobb lett a kiülős rész, pont a zsírnál. Meg most ott a parkolókat egy kicsit átvariálták. Szerintem az út nem lett szűkebb, úgyhogy egyébként az egy jó felújítás volt.</t>
@@ -4590,13 +4590,13 @@
     <t>Hát valószínűleg romlott, most ezt így nem is tudom, nem tudja közhangulat, tehát hogy talán több a szegény, ezt most így nehéz megítélni. De így a házban is tudom, hogy vannak, akik elég rossz helyzetben vannak. Nem tudom, hogy korábban is rosszban voltak-e, de hogy igen, vannak olyan lakosok is, akik tudom, hogy akár rászorulnak arra, hogy pár palackot visszavigyenek. És ezt sejtem az utcán is, hogy elég sok ember azért ebből keres mellékest. Szóval szerintem ennyit látok, hogy nőtt a szegénység. És hogy agresszív, szerintem nem agresszívabbak egyébként az emberek. Elkeseredetebbek az emberek talán, de azt nem mondanám egyébként, hogy romlott a közbiztonság például. Vagy legalábbis nem tűnt fel.</t>
   </si>
   <si>
-    <t>Biztonságérzet, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Lakóközösség változása, Negatív</t>
+    <t>Biztonságérzet, Társadalmi sokszínűség (etnikai / osztálybeli / más), Lakóközösség változása, Negatív</t>
   </si>
   <si>
     <t>Azt viszont tudom mondani, hogy egyre több indiai van ugye a kasmírüzletek miatt itt a szomszédunkban is. Most egy indiai család lakik meg egy jópár, illetve volt futárok is, sokan vannak. Nem tudom, kicsit terjeszkedik ez a kasmír. Blokk, vagy kasmír negyed lesz.</t>
   </si>
   <si>
-    <t>Lakóközösség cseréje, Lakóközösség változása, Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Lakossági összetétel, közösségek</t>
+    <t>Lakóközösség cseréje, Lakóközösség változása, Társadalmi sokszínűség (etnikai / osztálybeli / más), Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>Egyrészt üveg visszaváltó.</t>
@@ -4689,7 +4689,7 @@
     <t>Más nagy, a Kasimir Feszet azt nagyon szeretem, az hatalmas, a Nótár Méri koncert, nem szeretem az ilyen zenét, de az mindig hatalmas.</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.), Szabadidő / szórakozás / vendéglátás</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más), Szabadidő / szórakozás / vendéglátás</t>
   </si>
   <si>
     <t>elmehetünk mi a nyugati pályaudvarra is, és ott az aluljáró még durvább. Meg így bárhol a várba is fönn vannak a hajléktalanok. Tehát, hogy azt, hogy a 8. kerület sugárútján mi történik, attól szerintem meglepődve senki nincsen.</t>
@@ -4698,7 +4698,7 @@
     <t>Hát a negatívum az, hogy este azért zajos, meg este azért tudjuk, hogy azért neccesebb kimenni, de ugyanígy bárhol máshol is ez van. Azért nagyon haragszom, hogy a Blahát szépen megcsinálták, azzal nem tudnak mit kezdeni. Tehát, hogy nem is a közbiztonságot, hanem ilyen közrendet monanám, ami negatívum, ami zavar.</t>
   </si>
   <si>
-    <t>Biztonságérzet, Környezeti benyomások (zaj, szmog, stb), Tisztaság / rendezettség, Negatív, Blaha Lujza tér</t>
+    <t>Biztonságérzet, Környezeti benyomások (zaj / szmog / más), Tisztaság / rendezettség, Negatív, Blaha Lujza tér</t>
   </si>
   <si>
     <t>Hát az, hogy például mondjuk lehet, hogy napsütéses napokon én is kiülnék forgószékezni a Blahára. Csak nem tudom, hogy az, ahogy ránézek a székre, milyen nemi betegséget kapok el. Tehát, hogy ott az, hogy... És bármennyire erőlködhetnek azon, hogy köztisztaság, amíg az nincs rendbe téve, hogy ez a mennyiségű hajléktalan, vagy lehet, hogy nem hajléktalan, csak annyira rossz viszonyok között élő ember hova kerül, addig ezzel nem, és ez nem kerületi probléma, hanem országos.</t>
@@ -4785,7 +4785,7 @@
     <t>Az ilyen fiatal, vagy friss házasok, vagy friss családosok, és egyre többen vannak, és valószínűleg nekik vannak a parkok építve, hogy egyre inkább vonzák be, és egyre többet látjuk azt, hogy azzal, hogy olcsó ingatlanok vannak, ezért beköltöznek, kikupálják az ingatlant, és lesz egy tök jó lakás belőle, és jó a közlekedés, és jó mindenfelé, infrastruktúra is jó, tehát, hogy azt leszámítva, hogy jó a közlekedés, minden van.</t>
   </si>
   <si>
-    <t>Lakossági összetétel, közösségek, Fizikai környezet és utcakép változásai</t>
+    <t>Lakossági összetétel / közösségek, Fizikai környezet és utcakép változásai</t>
   </si>
   <si>
     <t>divatos környéknek látom egy kicsit. Hogy meglátják a szépet benne, és egyre többen települnek be</t>
@@ -4999,13 +4999,13 @@
     <t>Azoknak a hát úgy nem megnevelését, hogy kössék ki,, hogy 11 óra után hagyják abba a bulit, reggeltől estig menjen a buli. De az egész éjszaka, és akkor megy a dugajkodás, meg minden üvöltözés, nyitott ablak mellett az ember pihenni nem tud.</t>
   </si>
   <si>
-    <t>Környezeti benyomások (zaj, szmog, stb), Negatív, Tisztaság / rendezettség javítása</t>
+    <t>Környezeti benyomások (zaj / szmog / más), Negatív, Tisztaság / rendezettség javítása</t>
   </si>
   <si>
     <t>Hát itt, már lasan már teljesen az idősek már elmennek máshova. Csupa külföldiek kiadják a lakásokat. Sokszor, sokszor annyi külföldi jön, egy kínai, hogy nézegetem, és akkor kézzel-lábbel kezd el mutogatni, hogy mit és akkor mutatja, hogy be akarna menni, akkor behozom, és akkor mutatja a kezével, hogy 4. emelet, akkor beszállok a liftbe, és akkor mondom, hogy ne nyomkodjad, ez antik lift, ez olyan, hogy én megnyomom, kiszállok, és akkor nyomod.</t>
   </si>
   <si>
-    <t>Lakóközösség változása, Lakossági összetétel, közösségek</t>
+    <t>Lakóközösség változása, Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>Először is lenne jó egy tatahozás, házaknak a tatahozása. Olyan állapotban vannak, szóval ugye ezek már régi házak, úgyhogy egy kicsit kipofoznák, lefestenék, minden szóval. Kicsit más hangulata legyen.</t>
@@ -10123,7 +10123,7 @@
         <v>510</v>
       </c>
       <c r="C337" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="D337" t="s">
         <v>7</v>
@@ -10137,7 +10137,7 @@
         <v>511</v>
       </c>
       <c r="C338" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="D338" t="s">
         <v>7</v>
